--- a/automationPracticeLevel2/src/automation_practice.xlsx
+++ b/automationPracticeLevel2/src/automation_practice.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smanem/eclipseworkspace/automationPracticeLevel2/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smanem/GitHub/AutomationPractice/automationPracticeLevel2/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F80AEB-ADA8-E84D-BCDF-C65AE8508CDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27189137-E0A9-CE41-A5ED-A41E1A48A874}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="404" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
     <t>Jack</t>
   </si>
   <si>
-    <t>gajeliy701@septicvernon.com</t>
+    <t>gajeliy704@septicvernon.com</t>
   </si>
 </sst>
 </file>
